--- a/biology/Zoologie/Cybaeus_inagakii/Cybaeus_inagakii.xlsx
+++ b/biology/Zoologie/Cybaeus_inagakii/Cybaeus_inagakii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus inagakii est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus inagakii est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la préfecture de Mie sur Honshū au Japon[1],[2]. Elle se rencontre dans la grotte Kuroten-gu-no-ana à Taiki.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la préfecture de Mie sur Honshū au Japon,. Elle se rencontre dans la grotte Kuroten-gu-no-ana à Taiki.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4,13 mm et la femelle paratype mesure 4,38 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4,13 mm et la femelle paratype mesure 4,38 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Masashi Inagaki[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Masashi Inagaki.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ono, 2008 : Five new spiders of the families Dictynidae, Cybaeidae, Coelotidae and Ctenidae (Arachnida, Araneae) from Japan. Bull. Bulletin of the National Museum of Nature and Science. Series A, Zoology, vol. 34, no 3, p. 157-171 (texte intégral).</t>
         </is>
